--- a/apis.xlsx
+++ b/apis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\sandbox\mysportsfeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C51869-3DE9-41DF-9B03-A0354B80131B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8722D420-B8E7-4EBF-9919-D408895EDA77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{C6E18FF4-41D8-4405-B0A8-9DCB87340355}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{C6E18FF4-41D8-4405-B0A8-9DCB87340355}"/>
   </bookViews>
   <sheets>
     <sheet name="APIs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="110">
   <si>
     <t>API URL</t>
   </si>
@@ -242,67 +242,130 @@
     <t>https://api.mysportsfeeds.com/v2.1/pull/mlb/{season}/dfs.{format}</t>
   </si>
   <si>
-    <t>team={list-of-teams} (filter teams)</t>
-  </si>
-  <si>
-    <t>player={list-of-players} (filter players)</t>
-  </si>
-  <si>
-    <t>position={list-of-positions} (filter player positions)</t>
-  </si>
-  <si>
-    <t>country={list-of-countries} (filter player countries of birth)</t>
-  </si>
-  <si>
-    <t>dfstype={list-of-dfs-types} (filter DFS types)</t>
-  </si>
-  <si>
-    <t>sort={sort-specifier} (sort the feed's content)</t>
-  </si>
-  <si>
-    <t>offset={offset-specifier} (filter results starting at the given offset)</t>
-  </si>
-  <si>
-    <t>limit={limit-specifier} (limit the maximum # of results)</t>
-  </si>
-  <si>
-    <t>force={force-if-not-modified} (force content)</t>
-  </si>
-  <si>
-    <t>date={date-range} (filter on dates)</t>
-  </si>
-  <si>
-    <t>status={list-of-game-statuses} (filter game statuses)</t>
-  </si>
-  <si>
     <t>API Parameters</t>
   </si>
   <si>
     <t>API_ID</t>
   </si>
   <si>
-    <t>game={list-of-games}</t>
-  </si>
-  <si>
-    <t>stats={list-of-stats} (filter stats)</t>
-  </si>
-  <si>
-    <t>teamstats={list-of-team-stats} (filter team stats)</t>
-  </si>
-  <si>
-    <t>playerstats={list-of-player-stats} (filter player stats)</t>
-  </si>
-  <si>
-    <t>playtype={list-of-play-types} (filter play-by-play types)</t>
-  </si>
-  <si>
-    <t>lineuptype={lineup-type} (filter lineup type)</t>
-  </si>
-  <si>
-    <t>rosterstatus={list-of-roster-statuses} (filter roster statuses)</t>
-  </si>
-  <si>
-    <t>source={list-of-sources} (filter odds sources)</t>
+    <t>api_param_filter</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>{list-of-countries} (filter player countries of birth)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>{date-range} (filter on dates)</t>
+  </si>
+  <si>
+    <t>dfstype</t>
+  </si>
+  <si>
+    <t>{list-of-dfs-types} (filter DFS types)</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>{force-if-not-modified} (force content)</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>{list-of-games}</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>{limit-specifier} (limit the maximum # of results)</t>
+  </si>
+  <si>
+    <t>lineuptype</t>
+  </si>
+  <si>
+    <t>{lineup-type} (filter lineup type)</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>{offset-specifier} (filter results starting at the given offset)</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>{list-of-players} (filter players)</t>
+  </si>
+  <si>
+    <t>playerstats</t>
+  </si>
+  <si>
+    <t>{list-of-player-stats} (filter player stats)</t>
+  </si>
+  <si>
+    <t>playtype</t>
+  </si>
+  <si>
+    <t>{list-of-play-types} (filter play-by-play types)</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>{list-of-positions} (filter player positions)</t>
+  </si>
+  <si>
+    <t>rosterstatus</t>
+  </si>
+  <si>
+    <t>{list-of-roster-statuses} (filter roster statuses)</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>{sort-specifier} (sort the feed's content)</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>{list-of-sources} (filter odds sources)</t>
+  </si>
+  <si>
+    <t>stats</t>
+  </si>
+  <si>
+    <t>{list-of-stats} (filter stats)</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>{list-of-game-statuses} (filter game statuses)</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>{list-of-teams} (filter teams)</t>
+  </si>
+  <si>
+    <t>teamstats</t>
+  </si>
+  <si>
+    <t>{list-of-team-stats} (filter team stats)</t>
+  </si>
+  <si>
+    <t>api_param_desc</t>
   </si>
 </sst>
 </file>
@@ -676,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B579BAE3-11A3-4567-83FA-F81EBED7999E}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
@@ -690,7 +753,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -1031,20 +1094,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED87BDF3-2380-4F25-A71A-86560A72E5F3}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
       </c>
       <c r="I1">
         <v>1</v>
@@ -1057,6 +1128,9 @@
       <c r="A2" t="s">
         <v>71</v>
       </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
       <c r="I2">
         <v>2</v>
       </c>
@@ -1066,7 +1140,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -1077,7 +1154,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
       </c>
       <c r="I4">
         <v>4</v>
@@ -1088,7 +1168,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -1099,7 +1182,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
       </c>
       <c r="I6">
         <v>6</v>
@@ -1110,7 +1196,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
       </c>
       <c r="I7">
         <v>7</v>
@@ -1121,7 +1210,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -1132,7 +1224,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
       </c>
       <c r="I9">
         <v>9</v>
@@ -1143,7 +1238,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -1154,7 +1252,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
       </c>
       <c r="I11">
         <v>11</v>
@@ -1165,7 +1266,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
       </c>
       <c r="I12">
         <v>12</v>
@@ -1176,7 +1280,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
       </c>
       <c r="I13">
         <v>13</v>
@@ -1187,7 +1294,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
       </c>
       <c r="I14">
         <v>14</v>
@@ -1198,7 +1308,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
       </c>
       <c r="I15">
         <v>15</v>
@@ -1209,7 +1322,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
       </c>
       <c r="I16">
         <v>16</v>
@@ -1220,7 +1336,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
       </c>
       <c r="I17">
         <v>17</v>
@@ -1231,7 +1350,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
       </c>
       <c r="I18">
         <v>18</v>
@@ -1242,7 +1364,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
       </c>
       <c r="I19">
         <v>19</v>
@@ -1253,7 +1378,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
       </c>
       <c r="I20">
         <v>20</v>
@@ -1285,5 +1413,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>